--- a/results/I3_N5_M2_T30_C150_DepCentral_s4_P2_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s4_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>855.4304613430022</v>
+        <v>1588.81854618301</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.73074255039767</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.702599649065637</v>
+        <v>8.585560950698017</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.662318441671871</v>
+        <v>4.66841631978657</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>724.1199999999984</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.62</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,23 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -868,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -918,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>22.74451170626076</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.15868643584639</v>
+        <v>13.15868643584639</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.77463816779881</v>
+        <v>14.77463816779881</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>20.27548355737303</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.12492551463005</v>
+        <v>25.56053727432651</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.6146379281073</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1026,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1040,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1054,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1068,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1085,10 +1074,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1096,15 +1085,99 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1207,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000001</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8">
@@ -1218,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000007</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000000008</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10">
@@ -1240,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000008</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11">
@@ -1251,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000007</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12">
@@ -1262,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>136.505</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1273,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>141.37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1284,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>151.64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1295,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>147.335</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -1306,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>141.25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -1317,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>55.99500000000073</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1328,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>58.4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1339,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.00500000000073</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1350,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>53.86000000000073</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1361,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55.98000000000073</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1372,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>198.9800000000001</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
@@ -1383,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>211.6850000000001</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24">
@@ -1394,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>214.3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
@@ -1405,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>220.5450000000001</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
@@ -1416,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>215.3150000000001</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
@@ -1427,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>163.8399999999998</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
@@ -1438,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>163.6949999999998</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
@@ -1449,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>161.6799999999998</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30">
@@ -1460,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>160.4149999999998</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31">
@@ -1471,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>151.6049999999998</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32">
@@ -1482,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>198.9800000000001</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
@@ -1493,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>211.6850000000001</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
@@ -1504,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35">
@@ -1515,7 +1588,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>220.5450000000001</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
@@ -1526,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>215.3150000000001</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37">
@@ -1537,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>163.8399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1548,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>163.6949999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1559,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.6799999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1570,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>160.4149999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1581,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>151.6049999999998</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>48.98000000000008</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -1639,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>61.68500000000006</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
@@ -1650,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>64.3</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1661,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>70.54500000000007</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
@@ -1672,7 +1745,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>65.31500000000005</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -1683,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.83999999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1694,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.6949999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1705,7 +1778,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.67999999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1716,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.4149999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1727,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1.604999999999773</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1785,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1796,7 +1869,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1807,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1818,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1829,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1840,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1851,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1862,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1873,7 +1946,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1884,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1895,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1906,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1917,7 +1990,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1928,7 +2001,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1939,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1950,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1961,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1972,7 +2045,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1983,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1994,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2005,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2016,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2027,7 +2100,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2038,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +2125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2079,10 +2152,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2090,10 +2163,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2101,10 +2174,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2112,10 +2185,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2123,10 +2196,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2137,7 +2210,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2145,10 +2218,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2156,10 +2229,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2170,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2181,7 +2254,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2192,9 +2265,31 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
